--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.6355669746069</v>
+        <v>457.2223688156415</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.5321398661764</v>
+        <v>625.5918162408599</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.6041602017793</v>
+        <v>565.8862113224602</v>
       </c>
       <c r="AD2" t="n">
-        <v>420635.5669746069</v>
+        <v>457222.3688156414</v>
       </c>
       <c r="AE2" t="n">
-        <v>575532.1398661764</v>
+        <v>625591.8162408599</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.568295346232457e-06</v>
+        <v>4.75201880731037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>520604.1602017793</v>
+        <v>565886.2113224602</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.7942254798994</v>
+        <v>192.0148345066632</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.5834618602762</v>
+        <v>262.7231676685344</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.6723384828101</v>
+        <v>237.6492372806079</v>
       </c>
       <c r="AD3" t="n">
-        <v>167794.2254798994</v>
+        <v>192014.8345066632</v>
       </c>
       <c r="AE3" t="n">
-        <v>229583.4618602762</v>
+        <v>262723.1676685344</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.352316010195917e-06</v>
+        <v>8.05292411799475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.491666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207672.3384828101</v>
+        <v>237649.2372806079</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.7406027821438</v>
+        <v>191.9612118089076</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.5100929195405</v>
+        <v>262.6497987277987</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.6059717708042</v>
+        <v>237.5828705686021</v>
       </c>
       <c r="AD4" t="n">
-        <v>167740.6027821437</v>
+        <v>191961.2118089076</v>
       </c>
       <c r="AE4" t="n">
-        <v>229510.0929195405</v>
+        <v>262649.7987277987</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.363986764396349e-06</v>
+        <v>8.074518068837398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.482291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>207605.9717708042</v>
+        <v>237582.8705686021</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.9312795183597</v>
+        <v>268.5440446383689</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.1257822422938</v>
+        <v>367.4338092013244</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.1418479371786</v>
+        <v>332.3664421477393</v>
       </c>
       <c r="AD2" t="n">
-        <v>244931.2795183597</v>
+        <v>268544.0446383689</v>
       </c>
       <c r="AE2" t="n">
-        <v>335125.7822422938</v>
+        <v>367433.8092013244</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.476185305421268e-06</v>
+        <v>6.626145680149193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.521875</v>
       </c>
       <c r="AH2" t="n">
-        <v>303141.8479371786</v>
+        <v>332366.4421477393</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.1761259193837</v>
+        <v>187.7035501848178</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.6330184222938</v>
+        <v>256.824278258948</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.1943584185562</v>
+        <v>232.3133295971272</v>
       </c>
       <c r="AD3" t="n">
-        <v>164176.1259193837</v>
+        <v>187703.5501848178</v>
       </c>
       <c r="AE3" t="n">
-        <v>224633.0184222938</v>
+        <v>256824.2782589479</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.325688087578788e-06</v>
+        <v>8.245429088743437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.634375</v>
       </c>
       <c r="AH3" t="n">
-        <v>203194.3584185562</v>
+        <v>232313.3295971272</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.8323597079288</v>
+        <v>220.1373463269293</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.368765248029</v>
+        <v>301.2016290186622</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.710412915672</v>
+        <v>272.4553682843514</v>
       </c>
       <c r="AD2" t="n">
-        <v>188832.3597079288</v>
+        <v>220137.3463269293</v>
       </c>
       <c r="AE2" t="n">
-        <v>258368.765248029</v>
+        <v>301201.6290186621</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.766088665982565e-06</v>
+        <v>8.020783262088258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.658333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>233710.412915672</v>
+        <v>272455.3682843514</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.5427987194343</v>
+        <v>199.4011394658141</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.9218898432992</v>
+        <v>272.8294359744163</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.7377656197388</v>
+        <v>246.7909775236163</v>
       </c>
       <c r="AD2" t="n">
-        <v>177542.7987194343</v>
+        <v>199401.1394658141</v>
       </c>
       <c r="AE2" t="n">
-        <v>242921.8898432992</v>
+        <v>272829.4359744163</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.08829951527771e-06</v>
+        <v>8.300661470600963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>219737.7656197388</v>
+        <v>246790.9775236163</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.4870219289262</v>
+        <v>200.345362675306</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.2138176947134</v>
+        <v>274.1213638258307</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.9063936902467</v>
+        <v>247.9596055941242</v>
       </c>
       <c r="AD3" t="n">
-        <v>178487.0219289262</v>
+        <v>200345.362675306</v>
       </c>
       <c r="AE3" t="n">
-        <v>244213.8176947134</v>
+        <v>274121.3638258306</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087816207615424e-06</v>
+        <v>8.299680188951759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.105208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>220906.3936902467</v>
+        <v>247959.6055941242</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.8948874266468</v>
+        <v>249.8637601170347</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.869886054764</v>
+        <v>341.8746198030837</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.1552864033234</v>
+        <v>309.2465859132218</v>
       </c>
       <c r="AD2" t="n">
-        <v>219894.8874266468</v>
+        <v>249863.7601170347</v>
       </c>
       <c r="AE2" t="n">
-        <v>300869.886054764</v>
+        <v>341874.6198030837</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366595330767112e-06</v>
+        <v>7.496750224613599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.411458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>272155.2864033234</v>
+        <v>309246.5859132218</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.9280829596527</v>
+        <v>313.4744330878565</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.2734644270574</v>
+        <v>428.909548866756</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.9806986992976</v>
+        <v>387.9750235012447</v>
       </c>
       <c r="AD2" t="n">
-        <v>277928.0829596526</v>
+        <v>313474.4330878566</v>
       </c>
       <c r="AE2" t="n">
-        <v>380273.4644270574</v>
+        <v>428909.548866756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.224059250676994e-06</v>
+        <v>6.095934096667399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.832291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>343980.6986992976</v>
+        <v>387975.0235012447</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.9459671894067</v>
+        <v>188.7004278445901</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.6863492109386</v>
+        <v>258.1882502521861</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.1471607950921</v>
+        <v>233.5471260176779</v>
       </c>
       <c r="AD3" t="n">
-        <v>164945.9671894067</v>
+        <v>188700.42784459</v>
       </c>
       <c r="AE3" t="n">
-        <v>225686.3492109386</v>
+        <v>258188.2502521861</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337830612174028e-06</v>
+        <v>8.201812522138574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.591666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>204147.1607950921</v>
+        <v>233547.1260176779</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.4772694203679</v>
+        <v>278.7907850287468</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.3458061811384</v>
+        <v>381.4538514577211</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.7682415211602</v>
+        <v>345.0484312484384</v>
       </c>
       <c r="AD2" t="n">
-        <v>249477.2694203679</v>
+        <v>278790.7850287468</v>
       </c>
       <c r="AE2" t="n">
-        <v>341345.8061811384</v>
+        <v>381453.8514577211</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.073915289233003e-06</v>
+        <v>7.047155978830988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.065625</v>
       </c>
       <c r="AH2" t="n">
-        <v>308768.2415211602</v>
+        <v>345048.4312484384</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.2037414651631</v>
+        <v>195.9943227984768</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.9850002823125</v>
+        <v>268.1680791120239</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.3674844659739</v>
+        <v>242.5744940179137</v>
       </c>
       <c r="AD2" t="n">
-        <v>173203.7414651631</v>
+        <v>195994.3227984768</v>
       </c>
       <c r="AE2" t="n">
-        <v>236985.0002823125</v>
+        <v>268168.0791120239</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.097773595235329e-06</v>
+        <v>8.031579615699869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.952083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214367.4844659739</v>
+        <v>242574.4940179137</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.8699340690336</v>
+        <v>186.6605154023473</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.214073224414</v>
+        <v>255.3971520541255</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.8153967623686</v>
+        <v>231.0224063143083</v>
       </c>
       <c r="AD3" t="n">
-        <v>163869.9340690336</v>
+        <v>186660.5154023473</v>
       </c>
       <c r="AE3" t="n">
-        <v>224214.073224414</v>
+        <v>255397.1520541255</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.249686959527083e-06</v>
+        <v>8.329327710279013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.811458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>202815.3967623686</v>
+        <v>231022.4063143083</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.4190165023325</v>
+        <v>241.6255196883208</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.8505343452883</v>
+        <v>330.602695803006</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.3286587868215</v>
+        <v>299.0504385194633</v>
       </c>
       <c r="AD2" t="n">
-        <v>218419.0165023325</v>
+        <v>241625.5196883208</v>
       </c>
       <c r="AE2" t="n">
-        <v>298850.5343452883</v>
+        <v>330602.6958030061</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.720968436550226e-06</v>
+        <v>7.15431747814392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.264583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>270328.6587868215</v>
+        <v>299050.4385194633</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.3140026007674</v>
+        <v>186.6057571327762</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.4534232635671</v>
+        <v>255.3222293739341</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.1273421662057</v>
+        <v>230.9546341495597</v>
       </c>
       <c r="AD3" t="n">
-        <v>163314.0026007674</v>
+        <v>186605.7571327762</v>
       </c>
       <c r="AE3" t="n">
-        <v>223453.4232635671</v>
+        <v>255322.229373934</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.311777296562581e-06</v>
+        <v>8.2902674937123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.680208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202127.3421662057</v>
+        <v>230954.6341495597</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.3552256635842</v>
+        <v>403.4631997811007</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.631626321671</v>
+        <v>552.0361494806488</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.6611693534482</v>
+        <v>499.3505941618169</v>
       </c>
       <c r="AD2" t="n">
-        <v>367355.2256635842</v>
+        <v>403463.1997811007</v>
       </c>
       <c r="AE2" t="n">
-        <v>502631.626321671</v>
+        <v>552036.1494806488</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.787785897605624e-06</v>
+        <v>5.193433683647408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>454661.1693534482</v>
+        <v>499350.5941618169</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.8315682294905</v>
+        <v>191.0172791082293</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.2663117408269</v>
+        <v>261.3582683633597</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.4808953221288</v>
+        <v>236.4146020494704</v>
       </c>
       <c r="AD3" t="n">
-        <v>166831.5682294905</v>
+        <v>191017.2791082293</v>
       </c>
       <c r="AE3" t="n">
-        <v>228266.3117408269</v>
+        <v>261358.2683633597</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.350640023555226e-06</v>
+        <v>8.104912383394463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>206480.8953221288</v>
+        <v>236414.6020494704</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.299311295962</v>
+        <v>191.4850221747008</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.9062984397406</v>
+        <v>261.9982550622734</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.0598025887253</v>
+        <v>236.993509316067</v>
       </c>
       <c r="AD4" t="n">
-        <v>167299.311295962</v>
+        <v>191485.0221747008</v>
       </c>
       <c r="AE4" t="n">
-        <v>228906.2984397406</v>
+        <v>261998.2550622734</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.351669377985189e-06</v>
+        <v>8.10682999262463e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.519791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>207059.8025887253</v>
+        <v>236993.509316067</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.9193932583749</v>
+        <v>198.1101620165583</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.6499895861418</v>
+        <v>271.06306367444</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.1142712818549</v>
+        <v>245.1931853168301</v>
       </c>
       <c r="AD2" t="n">
-        <v>164919.3932583749</v>
+        <v>198110.1620165583</v>
       </c>
       <c r="AE2" t="n">
-        <v>225649.9895861418</v>
+        <v>271063.06367444</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.154061226351083e-06</v>
+        <v>8.326804740580749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.989583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>204114.2712818549</v>
+        <v>245193.1853168301</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.2215475577431</v>
+        <v>198.4123163159265</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.0634104286441</v>
+        <v>271.4764845169423</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.4882358193886</v>
+        <v>245.5671498543639</v>
       </c>
       <c r="AD3" t="n">
-        <v>165221.5475577431</v>
+        <v>198412.3163159265</v>
       </c>
       <c r="AE3" t="n">
-        <v>226063.4104286441</v>
+        <v>271476.4845169423</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.161220109438774e-06</v>
+        <v>8.341154702794525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.982291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>204488.2358193886</v>
+        <v>245567.1498543639</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.6372624660683</v>
+        <v>204.8425091337915</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.2606040102042</v>
+        <v>280.2745580104267</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.2806446100161</v>
+        <v>253.5255475618067</v>
       </c>
       <c r="AD2" t="n">
-        <v>183637.2624660683</v>
+        <v>204842.5091337915</v>
       </c>
       <c r="AE2" t="n">
-        <v>251260.6040102043</v>
+        <v>280274.5580104267</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899775330169111e-06</v>
+        <v>8.158573874539449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.426041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>227280.6446100161</v>
+        <v>253525.5475618067</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.4160869008971</v>
+        <v>228.1269016550071</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.1133994807599</v>
+        <v>312.1332910928373</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.3341557409323</v>
+        <v>282.3437278728548</v>
       </c>
       <c r="AD2" t="n">
-        <v>197416.0869008971</v>
+        <v>228126.9016550071</v>
       </c>
       <c r="AE2" t="n">
-        <v>270113.3994807599</v>
+        <v>312133.2910928373</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.590833693511011e-06</v>
+        <v>7.805954543235201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.972916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>244334.1557409324</v>
+        <v>282343.7278728548</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.2429159478508</v>
+        <v>323.7801374795236</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.9643827980299</v>
+        <v>443.0102682710246</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.4105890713572</v>
+        <v>400.7299900360539</v>
       </c>
       <c r="AD2" t="n">
-        <v>295242.9159478508</v>
+        <v>323780.1374795236</v>
       </c>
       <c r="AE2" t="n">
-        <v>403964.3827980299</v>
+        <v>443010.2682710246</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658486280489295e-06</v>
+        <v>6.323281300299934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.209374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>365410.5890713572</v>
+        <v>400729.9900360539</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.8468866554968</v>
+        <v>220.8081479117831</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.7028387105466</v>
+        <v>302.1194493407359</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.8673397179117</v>
+        <v>273.2855931230556</v>
       </c>
       <c r="AD2" t="n">
-        <v>197846.8866554968</v>
+        <v>220808.1479117831</v>
       </c>
       <c r="AE2" t="n">
-        <v>270702.8387105466</v>
+        <v>302119.4493407359</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.943527435246001e-06</v>
+        <v>7.652723352176801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.064583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>244867.3397179117</v>
+        <v>273285.5931230556</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.6652321149827</v>
+        <v>186.7117447172895</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.9339909800689</v>
+        <v>255.4672462629073</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.5620451743258</v>
+        <v>231.0858108301819</v>
       </c>
       <c r="AD3" t="n">
-        <v>163665.2321149827</v>
+        <v>186711.7447172895</v>
       </c>
       <c r="AE3" t="n">
-        <v>223933.9909800689</v>
+        <v>255467.2462629073</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.281425373043038e-06</v>
+        <v>8.308440722397264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.74375</v>
       </c>
       <c r="AH3" t="n">
-        <v>202562.0451743258</v>
+        <v>231085.8108301819</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.3153692758992</v>
+        <v>350.2891201926992</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.4790842613588</v>
+        <v>479.28102791297</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.8677470967844</v>
+        <v>433.5391192841029</v>
       </c>
       <c r="AD2" t="n">
-        <v>326315.3692758992</v>
+        <v>350289.1201926992</v>
       </c>
       <c r="AE2" t="n">
-        <v>446479.0842613588</v>
+        <v>479281.02791297</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.996761224570425e-06</v>
+        <v>5.623099474684542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.154166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>403867.7470967844</v>
+        <v>433539.1192841029</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.6142420748065</v>
+        <v>189.5879034830551</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.6007123913494</v>
+        <v>259.4025335733953</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.9742584368816</v>
+        <v>234.6455198429686</v>
       </c>
       <c r="AD3" t="n">
-        <v>165614.2420748065</v>
+        <v>189587.9034830551</v>
       </c>
       <c r="AE3" t="n">
-        <v>226600.7123913495</v>
+        <v>259402.5335733953</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.347238748363776e-06</v>
+        <v>8.157125006099454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.553125</v>
       </c>
       <c r="AH3" t="n">
-        <v>204974.2584368816</v>
+        <v>234645.5198429686</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.7956304841661</v>
+        <v>436.5965953003329</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.7038223148672</v>
+        <v>597.370722972308</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.6724399746635</v>
+        <v>540.3584995869057</v>
       </c>
       <c r="AD2" t="n">
-        <v>390795.630484166</v>
+        <v>436596.5953003329</v>
       </c>
       <c r="AE2" t="n">
-        <v>534703.8223148673</v>
+        <v>597370.7229723081</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.056887517975919e-06</v>
+        <v>5.144119586227345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.648958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>483672.4399746635</v>
+        <v>540358.4995869057</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.9724069138582</v>
+        <v>201.5150495165232</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2461869616571</v>
+        <v>275.7217809649246</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.744796486802</v>
+        <v>249.4072811676631</v>
       </c>
       <c r="AD2" t="n">
-        <v>179972.4069138582</v>
+        <v>201515.0495165232</v>
       </c>
       <c r="AE2" t="n">
-        <v>246246.186961657</v>
+        <v>275721.7809649246</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.005742736528284e-06</v>
+        <v>8.248959754813697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.246875</v>
       </c>
       <c r="AH2" t="n">
-        <v>222744.796486802</v>
+        <v>249407.2811676631</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.6777176584434</v>
+        <v>189.2003323159902</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.0558066021121</v>
+        <v>258.8722416041842</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.2904804984071</v>
+        <v>234.1658381950294</v>
       </c>
       <c r="AD2" t="n">
-        <v>166677.7176584434</v>
+        <v>189200.3323159902</v>
       </c>
       <c r="AE2" t="n">
-        <v>228055.8066021121</v>
+        <v>258872.2416041842</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.162469704468298e-06</v>
+        <v>8.246618844269954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.934375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>206290.4804984071</v>
+        <v>234165.8381950294</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.7390841051579</v>
+        <v>186.2616987627047</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.0350385311464</v>
+        <v>254.8514735332184</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.6534488889496</v>
+        <v>230.5288065855719</v>
       </c>
       <c r="AD3" t="n">
-        <v>163739.0841051579</v>
+        <v>186261.6987627047</v>
       </c>
       <c r="AE3" t="n">
-        <v>224035.0385311464</v>
+        <v>254851.4735332184</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.216397074010608e-06</v>
+        <v>8.353458891997418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.884375</v>
       </c>
       <c r="AH3" t="n">
-        <v>202653.4488889496</v>
+        <v>230528.8065855718</v>
       </c>
     </row>
   </sheetData>
